--- a/local/public/uploads/consignments_from_kerry.xlsx
+++ b/local/public/uploads/consignments_from_kerry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tee\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D036B4F6-DEB0-4BE1-9BBA-9E830C6AD359}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8730CC-D9D1-4157-A090-9D666548F307}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -97,16 +97,6 @@
     <t>091-8308064</t>
   </si>
   <si>
-    <t>สุพิชญ์รดา คำปุทา</t>
-  </si>
-  <si>
-    <t>สำนักวิจัยและพัฒนาการเกษตรเขตที่ 3 
-เลขที่ 180 หมู่ 27 ต.ศิลา  อ.เมือง จ.ขอนแก่น</t>
-  </si>
-  <si>
-    <t>088 7998542</t>
-  </si>
-  <si>
     <t>ชญานันท์ พิมพ์วันวงศ์</t>
   </si>
   <si>
@@ -125,9 +115,6 @@
     <t>B000000000001</t>
   </si>
   <si>
-    <t>C000000000001</t>
-  </si>
-  <si>
     <t>D000000000001</t>
   </si>
   <si>
@@ -135,9 +122,6 @@
   </si>
   <si>
     <t>P1210300007</t>
-  </si>
-  <si>
-    <t>P1210300008</t>
   </si>
   <si>
     <t>P1210300009</t>
@@ -487,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,10 +560,10 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -599,10 +583,10 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
         <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -622,10 +606,10 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
         <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
@@ -634,7 +618,7 @@
         <v>26</v>
       </c>
       <c r="G4">
-        <v>40000</v>
+        <v>51000</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
@@ -642,31 +626,8 @@
       <c r="I4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="J4" t="s">
         <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5">
-        <v>51000</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/local/public/uploads/consignments_from_kerry.xlsx
+++ b/local/public/uploads/consignments_from_kerry.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tee\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8730CC-D9D1-4157-A090-9D666548F307}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A403518F-E329-4417-8F4A-D5B6F108B04D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,20 +118,20 @@
     <t>D000000000001</t>
   </si>
   <si>
-    <t>P1210300017</t>
-  </si>
-  <si>
-    <t>P1210300007</t>
-  </si>
-  <si>
-    <t>P1210300009</t>
+    <t>P1210400002</t>
+  </si>
+  <si>
+    <t>P1210400003</t>
+  </si>
+  <si>
+    <t>P1210400004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -142,6 +142,12 @@
       <sz val="11"/>
       <color rgb="FF002699"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF495057"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,9 +170,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,7 +481,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,7 +569,7 @@
       <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E2" t="s">
@@ -585,7 +592,7 @@
       <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E3" t="s">
@@ -608,7 +615,7 @@
       <c r="A4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E4" t="s">
@@ -633,5 +640,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
--- a/local/public/uploads/consignments_from_kerry.xlsx
+++ b/local/public/uploads/consignments_from_kerry.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tee\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A403518F-E329-4417-8F4A-D5B6F108B04D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576AE2B7-F606-4878-AE91-14D9DC40B9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,13 +118,13 @@
     <t>D000000000001</t>
   </si>
   <si>
-    <t>P1210400002</t>
-  </si>
-  <si>
     <t>P1210400003</t>
   </si>
   <si>
     <t>P1210400004</t>
+  </si>
+  <si>
+    <t>P1210600001</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,8 +569,8 @@
       <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
+      <c r="D2" t="s">
+        <v>34</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -593,7 +593,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -616,7 +616,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
